--- a/data/n2v/tables/model-1200-1325-20230811-45.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230811-45.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         </is>
       </c>
       <c r="C958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         </is>
       </c>
       <c r="C999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         </is>
       </c>
       <c r="C1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1072" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1088" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1091" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1094" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1096" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1098" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1099" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1102" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1104" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1105" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         </is>
       </c>
       <c r="C1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1116" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1117" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1120" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1121" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         </is>
       </c>
       <c r="C1122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1122" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1124" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1128" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1129" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1130" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1131" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1133" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1135" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1136" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         </is>
       </c>
       <c r="C1138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1138" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1140" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         </is>
       </c>
       <c r="C1141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1141" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1143" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1144" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1145" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1146" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1150" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1151" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         </is>
       </c>
       <c r="C1152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1152" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="C1154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1154" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1157" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1158" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         </is>
       </c>
       <c r="C1161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1161" t="inlineStr">
         <is>
@@ -21412,7 +21412,7 @@
         </is>
       </c>
       <c r="C1166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1166" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         </is>
       </c>
       <c r="C1167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1167" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         </is>
       </c>
       <c r="C1168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1168" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         </is>
       </c>
       <c r="C1169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1169" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         </is>
       </c>
       <c r="C1170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1170" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1172" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         </is>
       </c>
       <c r="C1173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1173" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1174" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         </is>
       </c>
       <c r="C1175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1175" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1176" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1177" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1178" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="C1179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1179" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1180" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         </is>
       </c>
       <c r="C1184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1184" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1185" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         </is>
       </c>
       <c r="C1187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1187" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="C1189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1189" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         </is>
       </c>
       <c r="C1191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1191" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         </is>
       </c>
       <c r="C1192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1192" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1193" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1194" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         </is>
       </c>
       <c r="C1195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1195" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="C1196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1196" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1197" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         </is>
       </c>
       <c r="C1198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1198" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1199" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         </is>
       </c>
       <c r="C1200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1200" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1201" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         </is>
       </c>
       <c r="C1202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1202" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         </is>
       </c>
       <c r="C1203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1203" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         </is>
       </c>
       <c r="C1205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1205" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         </is>
       </c>
       <c r="C1206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1206" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         </is>
       </c>
       <c r="C1207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1207" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1209" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         </is>
       </c>
       <c r="C1210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1210" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         </is>
       </c>
       <c r="C1211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1211" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         </is>
       </c>
       <c r="C1212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1212" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1214" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         </is>
       </c>
       <c r="C1215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1215" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         </is>
       </c>
       <c r="C1217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1217" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         </is>
       </c>
       <c r="C1218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1218" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="C1221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1221" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1222" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         </is>
       </c>
       <c r="C1223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1223" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1226" t="inlineStr">
         <is>
@@ -22510,7 +22510,7 @@
         </is>
       </c>
       <c r="C1227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1227" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         </is>
       </c>
       <c r="C1228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1228" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="C1229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1229" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         </is>
       </c>
       <c r="C1231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1231" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1233" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1235" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1236" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         </is>
       </c>
       <c r="C1237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1237" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         </is>
       </c>
       <c r="C1238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1238" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         </is>
       </c>
       <c r="C1239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1239" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         </is>
       </c>
       <c r="C1240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1240" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         </is>
       </c>
       <c r="C1243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1243" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         </is>
       </c>
       <c r="C1244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1244" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1245" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1247" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         </is>
       </c>
       <c r="C1248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1248" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1249" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         </is>
       </c>
       <c r="C1250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1250" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         </is>
       </c>
       <c r="C1251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1251" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         </is>
       </c>
       <c r="C1252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1252" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="C1254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1254" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1255" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1256" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1259" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1262" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1264" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1266" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         </is>
       </c>
       <c r="C1267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1267" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         </is>
       </c>
       <c r="C1268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1268" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="C1269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1269" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1270" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         </is>
       </c>
       <c r="C1272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1272" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         </is>
       </c>
       <c r="C1273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1273" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         </is>
       </c>
       <c r="C1274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1274" t="inlineStr">
         <is>
@@ -23374,7 +23374,7 @@
         </is>
       </c>
       <c r="C1275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1275" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         </is>
       </c>
       <c r="C1276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1276" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         </is>
       </c>
       <c r="C1278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1278" t="inlineStr">
         <is>
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="C1279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1279" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1280" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         </is>
       </c>
       <c r="C1282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1282" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         </is>
       </c>
       <c r="C1283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1283" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         </is>
       </c>
       <c r="C1284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1284" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         </is>
       </c>
       <c r="C1286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1286" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         </is>
       </c>
       <c r="C1287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1287" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         </is>
       </c>
       <c r="C1290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1290" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         </is>
       </c>
       <c r="C1292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1292" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         </is>
       </c>
       <c r="C1293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1293" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         </is>
       </c>
       <c r="C1294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1294" t="inlineStr">
         <is>
@@ -23734,7 +23734,7 @@
         </is>
       </c>
       <c r="C1295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1295" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1296" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         </is>
       </c>
       <c r="C1298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1298" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1299" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1303" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1304" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1306" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="C1308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1308" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         </is>
       </c>
       <c r="C1313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1313" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1314" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         </is>
       </c>
       <c r="C1315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1315" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         </is>
       </c>
       <c r="C1316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1316" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         </is>
       </c>
       <c r="C1317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1317" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1318" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         </is>
       </c>
       <c r="C1319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1319" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         </is>
       </c>
       <c r="C1321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1321" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         </is>
       </c>
       <c r="C1322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1322" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         </is>
       </c>
       <c r="C1323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1323" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         </is>
       </c>
       <c r="C1324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1324" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         </is>
       </c>
       <c r="C1325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1325" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         </is>
       </c>
       <c r="C1331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1331" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1337" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1338" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         </is>
       </c>
       <c r="C1339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1339" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         </is>
       </c>
       <c r="C1340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1340" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         </is>
       </c>
       <c r="C1341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1341" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         </is>
       </c>
       <c r="C1342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1342" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="C1343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1343" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         </is>
       </c>
       <c r="C1344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1344" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         </is>
       </c>
       <c r="C1345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1345" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         </is>
       </c>
       <c r="C1346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1346" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1348" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="C1349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1349" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1352" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         </is>
       </c>
       <c r="C1355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1355" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         </is>
       </c>
       <c r="C1356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1356" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         </is>
       </c>
       <c r="C1357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1357" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         </is>
       </c>
       <c r="C1358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1358" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         </is>
       </c>
       <c r="C1359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1359" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         </is>
       </c>
       <c r="C1360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1360" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         </is>
       </c>
       <c r="C1361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1361" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         </is>
       </c>
       <c r="C1363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1363" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         </is>
       </c>
       <c r="C1364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1364" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         </is>
       </c>
       <c r="C1365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1365" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         </is>
       </c>
       <c r="C1367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1367" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         </is>
       </c>
       <c r="C1368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1368" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         </is>
       </c>
       <c r="C1369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1369" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         </is>
       </c>
       <c r="C1375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1375" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         </is>
       </c>
       <c r="C1376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1376" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         </is>
       </c>
       <c r="C1378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1378" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         </is>
       </c>
       <c r="C1381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1381" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         </is>
       </c>
       <c r="C1382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1382" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         </is>
       </c>
       <c r="C1383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1383" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         </is>
       </c>
       <c r="C1385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1385" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="C1387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1387" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="C1389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1389" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         </is>
       </c>
       <c r="C1391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1391" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         </is>
       </c>
       <c r="C1392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1392" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         </is>
       </c>
       <c r="C1393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         </is>
       </c>
       <c r="C1394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1394" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         </is>
       </c>
       <c r="C1395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1395" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         </is>
       </c>
       <c r="C1396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1396" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         </is>
       </c>
       <c r="C1397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1397" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1399" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         </is>
       </c>
       <c r="C1401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1401" t="inlineStr">
         <is>
@@ -25660,7 +25660,7 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1402" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         </is>
       </c>
       <c r="C1403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1403" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="C1404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1404" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         </is>
       </c>
       <c r="C1408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1408" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         </is>
       </c>
       <c r="C1409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1409" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         </is>
       </c>
       <c r="C1410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1410" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         </is>
       </c>
       <c r="C1411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1411" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         </is>
       </c>
       <c r="C1412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1412" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1414" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1415" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         </is>
       </c>
       <c r="C1417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1417" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         </is>
       </c>
       <c r="C1418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1418" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1420" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         </is>
       </c>
       <c r="C1421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1421" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="C1422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1422" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         </is>
       </c>
       <c r="C1424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1424" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         </is>
       </c>
       <c r="C1425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1425" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         </is>
       </c>
       <c r="C1426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1426" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         </is>
       </c>
       <c r="C1428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1428" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1429" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         </is>
       </c>
       <c r="C1430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1430" t="inlineStr">
         <is>
@@ -26200,7 +26200,7 @@
         </is>
       </c>
       <c r="C1432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1432" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         </is>
       </c>
       <c r="C1434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1434" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         </is>
       </c>
       <c r="C1435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1435" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         </is>
       </c>
       <c r="C1436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1436" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         </is>
       </c>
       <c r="C1437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1437" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         </is>
       </c>
       <c r="C1438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1438" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         </is>
       </c>
       <c r="C1440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1440" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         </is>
       </c>
       <c r="C1441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1441" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         </is>
       </c>
       <c r="C1445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1445" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         </is>
       </c>
       <c r="C1447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1447" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         </is>
       </c>
       <c r="C1448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1448" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         </is>
       </c>
       <c r="C1449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1449" t="inlineStr">
         <is>
@@ -26524,7 +26524,7 @@
         </is>
       </c>
       <c r="C1450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1450" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         </is>
       </c>
       <c r="C1451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1451" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         </is>
       </c>
       <c r="C1452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1452" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1454" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         </is>
       </c>
       <c r="C1456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1456" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         </is>
       </c>
       <c r="C1457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1457" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         </is>
       </c>
       <c r="C1458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1458" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         </is>
       </c>
       <c r="C1461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1461" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         </is>
       </c>
       <c r="C1462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1462" t="inlineStr">
         <is>
@@ -26758,7 +26758,7 @@
         </is>
       </c>
       <c r="C1463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1463" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         </is>
       </c>
       <c r="C1465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1465" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         </is>
       </c>
       <c r="C1466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1466" t="inlineStr">
         <is>
